--- a/data/minfin/2_questions.xlsx
+++ b/data/minfin/2_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,9 +45,6 @@
     <t>На какой период осуществляется разработка Бюджетного прогноза Российской Федерации?</t>
   </si>
   <si>
-    <t>Бюджетный прогноз Российской Федерации разрабатывается на 18-летний период каждые 6 лет</t>
-  </si>
-  <si>
     <t>document</t>
   </si>
   <si>
@@ -63,10 +60,6 @@
     <t>document_caption</t>
   </si>
   <si>
-    <t>В соответствии с постановлением Правительства Российской Федерации от 31 августа 2015 года № 914 «О бюджетном прогнозе Российской Федерации на долгосрочный период» бюджетный прогноз Российской Федерации на долгосрочный период разрабатывается на 18-летний период каждые 6 лет.
-В 2015 году бюджетный прогноз Российской Федерации на долгосрочный период был разработан до 2030 года.</t>
-  </si>
-  <si>
     <t>Период, Бюджетный прогноз, прогноз на долгосрочный период</t>
   </si>
   <si>
@@ -85,12 +78,6 @@
     <t>Цели разработки бюджетного прогноза Российской Федерации</t>
   </si>
   <si>
-    <t>Базовой целью долгосрочного бюджетного планирования является обеспечение предсказуемости развития бюджетов бюджетной системы Российской Федерации</t>
-  </si>
-  <si>
-    <t>Базовой целью долгосрочного бюджетного планирования является обеспечение предсказуемости развития бюджетов бюджетной системы Российской Федерации, что позволяет оценивать на вариантной основе долгосрочные тенденции изменений объема и структуры доходов и расходов бюджетов, структуры и условий привлечения и обслуживания заимствований, межбюджетного регулирования, а также выработать на их основе соответствующие меры, направленные на повышение эффективности функционирования бюджетной системы, ее роли в стимулировании социально-экономического развития, решении стратегических задач.</t>
-  </si>
-  <si>
     <t>Цель, бюджетный прогноз, долгосрочное бюджетное планирование</t>
   </si>
   <si>
@@ -127,26 +114,386 @@
     <t>Какой объем бюджетных ассигнований предусмотрен на реализацию приоритетных проектов в федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов?</t>
   </si>
   <si>
-    <t>На реализацию «пилотного» портфеля приоритетных проектов и программ, включающего 20 приоритетных проектов (программ) по 10 направлениям стратегического развития Российской Федерации («Ипотека и арендное жилье», «Моногорода», «Образование», «Безопасные и качественные дороги», «ЖКХ и городская среда», «Международная кооперация и экспорт», «Здравоохранение», «Малый бизнес и поддержка индивидуальной предпринимательской инициативы», «Реформа контрольной и надзорной деятельности» и «Экология»), предусмотрено: в 2017 году – 180,72 млрд. рублей, в 2018 году - 85,04 млрд. рублей, в 2019 году – 54,91 млрд. рублей. Распределение бюджетных ассигнований по приоритетным проектам и программам приведено в таблице (информация представлена по состоянию на 1 апреля 2017 г.)</t>
-  </si>
-  <si>
     <t>Распределение бюджетных ассигнований по приоритетным проектам и программам</t>
   </si>
   <si>
     <t>Raspredelenie assignovaniy po prioritetnim proektam i programmam.pdf</t>
   </si>
   <si>
-    <t>Бюджетные ассигнования, приоритетный проект, федеральный бюджет</t>
-  </si>
-  <si>
-    <t>На реализацию «пилотного» портфеля приоритетных проектов и программ в федеральном бюджете предусмотрено: в 2017 году – 180,72 млрд. рублей, в 2018 году – 85,04 млрд. рублей, в 2019 году – 54,91 млрд. рублей</t>
+    <t>Приоритетные проекты, приоритетные программы, направления стратегического развития, 2017, 2018, 2019, объем, размер, бюджетные ассигнования</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии с постановлением Правительства Российской Федерации от 31 августа 2015 года № 914 «О бюджетном прогнозе Российской Федерации на долгосрочный период» </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">бюджетный прогноз </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Российской Федерации на долгосрочный период разрабатывается на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-летний период каждые </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">лет.
+В </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году бюджетный прогноз Российской Федерации на долгосрочный период был разработан до </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> года.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Базовой целью долгосрочного бюджетного планирования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> является обеспечение предсказуемости развития бюджетов бюджетной системы Российской Федерации, что позволяет оценивать на вариантной основе долгосрочные тенденции изменений объема и структуры доходов и расходов бюджетов, структуры и условий привлечения и обслуживания заимствований, межбюджетного регулирования, а также выработать на их основе соответствующие меры, направленные на повышение эффективности функционирования бюджетной системы, ее роли в стимулировании социально-экономического развития, решении стратегических задач.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На реализацию «пилотного» портфеля приоритетных проектов и программ, включающего </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> приоритетных проектов (программ) по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> направлениям стратегического развития Российской Федерации (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«Ипотека и арендное жилье», «Моногорода», «Образование», «Безопасные и качественные дороги», «ЖКХ и городская среда», «Международная кооперация и экспорт», «Здравоохранение», «Малый бизнес и поддержка индивидуальной предпринимательской инициативы», «Реформа контрольной и надзорной деятельности» и «Экология»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">), предусмотрено: в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>180,72 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 85,04 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>54,91 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. Распределение бюджетных ассигнований по приоритетным проектам и программам приведено в таблице (информация представлена по состоянию на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> апреля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Бюджетный прогноз Российской Федерации разрабатывается на восемнадцатилетний период каждые шесть лет</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Базовой целью долгосрочного бюджетного планирования является </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечЕние</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> предсказуемости развития бюджетов бюджетной системы Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <t>На реализацию «пилотного» портфеля приоритетных проектов и программ в федеральном бюджете предусмотрено: в две тысячи семнадцатом году – сто восемьдесят целых семьдесят две сотых миллиарда рублей, в две тысячи восемнадцатом  году - восемьдесят пять целых  четыре сотых милиарда рублей, в две тысячи девятнадцатом году – пятьдесят четыре целых девяносто одна сотая миллиарда рублей</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,7 +503,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -164,19 +510,12 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
+      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -184,18 +523,24 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,27 +555,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,172 +878,169 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
+    <row r="2" spans="1:12" ht="110.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="173.25">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:12" ht="204.75">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="5" spans="1:12" ht="220.5">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="J5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="54" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/minfin/2_questions.xlsx
+++ b/data/minfin/2_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,9 +45,6 @@
     <t>На какой период осуществляется разработка Бюджетного прогноза Российской Федерации?</t>
   </si>
   <si>
-    <t>Бюджетный прогноз Российской Федерации разрабатывается на 18-летний период каждые 6 лет</t>
-  </si>
-  <si>
     <t>document</t>
   </si>
   <si>
@@ -63,10 +60,6 @@
     <t>document_caption</t>
   </si>
   <si>
-    <t>В соответствии с постановлением Правительства Российской Федерации от 31 августа 2015 года № 914 «О бюджетном прогнозе Российской Федерации на долгосрочный период» бюджетный прогноз Российской Федерации на долгосрочный период разрабатывается на 18-летний период каждые 6 лет.
-В 2015 году бюджетный прогноз Российской Федерации на долгосрочный период был разработан до 2030 года.</t>
-  </si>
-  <si>
     <t>Период, Бюджетный прогноз, прогноз на долгосрочный период</t>
   </si>
   <si>
@@ -85,12 +78,6 @@
     <t>Цели разработки бюджетного прогноза Российской Федерации</t>
   </si>
   <si>
-    <t>Базовой целью долгосрочного бюджетного планирования является обеспечение предсказуемости развития бюджетов бюджетной системы Российской Федерации</t>
-  </si>
-  <si>
-    <t>Базовой целью долгосрочного бюджетного планирования является обеспечение предсказуемости развития бюджетов бюджетной системы Российской Федерации, что позволяет оценивать на вариантной основе долгосрочные тенденции изменений объема и структуры доходов и расходов бюджетов, структуры и условий привлечения и обслуживания заимствований, межбюджетного регулирования, а также выработать на их основе соответствующие меры, направленные на повышение эффективности функционирования бюджетной системы, ее роли в стимулировании социально-экономического развития, решении стратегических задач.</t>
-  </si>
-  <si>
     <t>Цель, бюджетный прогноз, долгосрочное бюджетное планирование</t>
   </si>
   <si>
@@ -127,9 +114,6 @@
     <t>Какой объем бюджетных ассигнований предусмотрен на реализацию приоритетных проектов в федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов?</t>
   </si>
   <si>
-    <t>На реализацию «пилотного» портфеля приоритетных проектов и программ, включающего 20 приоритетных проектов (программ) по 10 направлениям стратегического развития Российской Федерации («Ипотека и арендное жилье», «Моногорода», «Образование», «Безопасные и качественные дороги», «ЖКХ и городская среда», «Международная кооперация и экспорт», «Здравоохранение», «Малый бизнес и поддержка индивидуальной предпринимательской инициативы», «Реформа контрольной и надзорной деятельности» и «Экология»), предусмотрено: в 2017 году – 180,72 млрд. рублей, в 2018 году - 85,04 млрд. рублей, в 2019 году – 54,91 млрд. рублей. Распределение бюджетных ассигнований по приоритетным проектам и программам приведено в таблице (информация представлена по состоянию на 1 апреля 2017 г.)</t>
-  </si>
-  <si>
     <t>Распределение бюджетных ассигнований по приоритетным проектам и программам</t>
   </si>
   <si>
@@ -139,35 +123,421 @@
     <t>Приоритетные проекты, приоритетные программы, направления стратегического развития, 2017, 2018, 2019, объем, размер, бюджетные ассигнования</t>
   </si>
   <si>
-    <t>На реализацию «пилотного» портфеля приоритетных проектов и программ в федеральном бюджете предусмотрено: в 2017 году – 180,72 млрд. рублей, в 2018 году - 85,04 млрд. рублей, в 2019 году – 54,91 млрд. рублей</t>
+    <r>
+      <t xml:space="preserve">В соответствии с постановлением Правительства Российской Федерации от 31 августа 2015 года № 914 «О бюджетном прогнозе Российской Федерации на долгосрочный период» </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">бюджетный прогноз </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Российской Федерации на долгосрочный период разрабатывается на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-летний период каждые </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">лет.
+В </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году бюджетный прогноз Российской Федерации на долгосрочный период был разработан до </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> года.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Базовой целью долгосрочного бюджетного планирования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> является обеспечение предсказуемости развития бюджетов бюджетной системы Российской Федерации, что позволяет оценивать на вариантной основе долгосрочные тенденции изменений объема и структуры доходов и расходов бюджетов, структуры и условий привлечения и обслуживания заимствований, межбюджетного регулирования, а также выработать на их основе соответствующие меры, направленные на повышение эффективности функционирования бюджетной системы, ее роли в стимулировании социально-экономического развития, решении стратегических задач.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На реализацию «пилотного» портфеля приоритетных проектов и программ, включающего </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> приоритетных проектов (программ) по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> направлениям стратегического развития Российской Федерации (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«Ипотека и арендное жилье», «Моногорода», «Образование», «Безопасные и качественные дороги», «ЖКХ и городская среда», «Международная кооперация и экспорт», «Здравоохранение», «Малый бизнес и поддержка индивидуальной предпринимательской инициативы», «Реформа контрольной и надзорной деятельности» и «Экология»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">), предусмотрено: в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>180,72 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 85,04 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>54,91 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. Распределение бюджетных ассигнований по приоритетным проектам и программам приведено в таблице (информация представлена по состоянию на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> апреля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Бюджетный прогноз Российской Федерации разрабатывается на восемнадцатилетний период каждые шесть лет</t>
+  </si>
+  <si>
+    <r>
+      <t>На реализацию «пилотного» портфеля приоритетных проектов и программ в федеральном бюджете предусмотрено: в две тысячи семнадцатом году –</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> сто восемьдесят миллиардов семьсот двадцать </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>миллионов рублей, в две тысячи восемнадцатом  году -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> восемьдесят пять миллиардов сорок миллионов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">рублей, в две тысячи девятнадцатом году – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пятьдесят четыре миллиарда девятьсот десять миллионов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> рублей</t>
+    </r>
+  </si>
+  <si>
+    <t>Базовой целью долгосрочного бюджетного планирования является обеспечЕние предсказуемости развития бюджетов бюджетной системы Российской Федерации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -182,13 +552,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,27 +586,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,189 +912,169 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="110.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:12" ht="173.25">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:12" ht="204.75">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    <row r="5" spans="1:12" ht="220.5">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="54" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
